--- a/java知識.xlsx
+++ b/java知識.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本知識" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="885">
   <si>
     <t>JAVA知識</t>
     <rPh sb="4" eb="6">
@@ -8685,6 +8685,65 @@
   </si>
   <si>
     <t>参照できない部分はカプセル内で適切に利用され、外からは知る必要のない部分とします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題９</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public class Test18 {</t>
+  </si>
+  <si>
+    <t>int [] num = {1,2,3};</t>
+  </si>
+  <si>
+    <t>for (int a : num)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; num.length; ++i)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力結果：123123123</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.print(a++);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もしSystem.out.print(a)の場合、出力は123123123</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>System.out.print(++a)の場合、出力は234234234</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9285,6 +9344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9292,6 +9360,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9312,61 +9428,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9386,24 +9463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11031,6 +11090,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="46072424"/>
+          <a:ext cx="7067550" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11323,7 +11436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO619"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI436" sqref="AI436"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -11388,51 +11503,51 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="M12" s="103" t="s">
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="M12" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="101" t="s">
+      <c r="T12" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
       <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="1:26">
@@ -11780,69 +11895,69 @@
       </c>
     </row>
     <row r="62" spans="5:14">
-      <c r="G62" s="88" t="s">
+      <c r="G62" s="85" t="s">
         <v>523</v>
       </c>
-      <c r="H62" s="94"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="79" t="s">
+      <c r="H62" s="86"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="82" t="s">
         <v>528</v>
       </c>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="81"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="84"/>
     </row>
     <row r="63" spans="5:14">
-      <c r="G63" s="88" t="s">
+      <c r="G63" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="H63" s="94"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="79" t="s">
+      <c r="H63" s="86"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="81"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="84"/>
     </row>
     <row r="64" spans="5:14">
-      <c r="G64" s="88" t="s">
+      <c r="G64" s="85" t="s">
         <v>525</v>
       </c>
-      <c r="H64" s="94"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="79" t="s">
+      <c r="H64" s="86"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="81"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="84"/>
     </row>
     <row r="65" spans="4:13">
-      <c r="G65" s="88" t="s">
+      <c r="G65" s="85" t="s">
         <v>526</v>
       </c>
-      <c r="H65" s="94"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="79" t="s">
+      <c r="H65" s="86"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="81"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="84"/>
     </row>
     <row r="66" spans="4:13">
-      <c r="G66" s="79" t="s">
+      <c r="G66" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="H66" s="80"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="79" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="82" t="s">
         <v>532</v>
       </c>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="81"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="84"/>
     </row>
     <row r="68" spans="4:13">
       <c r="D68" t="s">
@@ -11925,29 +12040,29 @@
       </c>
     </row>
     <row r="94" spans="3:34">
-      <c r="E94" s="79" t="s">
+      <c r="E94" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="80"/>
-      <c r="G94" s="81"/>
-      <c r="H94" s="79" t="s">
+      <c r="F94" s="83"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I94" s="80"/>
-      <c r="J94" s="80"/>
-      <c r="K94" s="80"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="79" t="s">
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="N94" s="80"/>
-      <c r="O94" s="80"/>
-      <c r="P94" s="81"/>
-      <c r="Q94" s="79" t="s">
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="82" t="s">
         <v>554</v>
       </c>
-      <c r="R94" s="80"/>
-      <c r="S94" s="81"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="84"/>
       <c r="T94" s="78" t="s">
         <v>555</v>
       </c>
@@ -11966,29 +12081,29 @@
       <c r="AG94" s="78"/>
     </row>
     <row r="95" spans="3:34">
-      <c r="E95" s="88" t="s">
+      <c r="E95" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F95" s="94"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="79" t="s">
+      <c r="F95" s="86"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I95" s="80"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="81"/>
-      <c r="M95" s="79" t="s">
+      <c r="I95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="83"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="82" t="s">
         <v>553</v>
       </c>
-      <c r="N95" s="80"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="81"/>
-      <c r="Q95" s="79" t="s">
+      <c r="N95" s="83"/>
+      <c r="O95" s="83"/>
+      <c r="P95" s="84"/>
+      <c r="Q95" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="R95" s="80"/>
-      <c r="S95" s="81"/>
+      <c r="R95" s="83"/>
+      <c r="S95" s="84"/>
       <c r="T95" s="78" t="s">
         <v>840</v>
       </c>
@@ -12008,29 +12123,29 @@
       <c r="AH95" s="4"/>
     </row>
     <row r="96" spans="3:34">
-      <c r="E96" s="79" t="s">
+      <c r="E96" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="80"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="79" t="s">
+      <c r="F96" s="83"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I96" s="80"/>
-      <c r="J96" s="80"/>
-      <c r="K96" s="80"/>
-      <c r="L96" s="81"/>
-      <c r="M96" s="79" t="s">
+      <c r="I96" s="83"/>
+      <c r="J96" s="83"/>
+      <c r="K96" s="83"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="82" t="s">
         <v>564</v>
       </c>
-      <c r="N96" s="80"/>
-      <c r="O96" s="80"/>
-      <c r="P96" s="81"/>
-      <c r="Q96" s="79" t="s">
+      <c r="N96" s="83"/>
+      <c r="O96" s="83"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="82" t="s">
         <v>558</v>
       </c>
-      <c r="R96" s="80"/>
-      <c r="S96" s="81"/>
+      <c r="R96" s="83"/>
+      <c r="S96" s="84"/>
       <c r="T96" s="78" t="s">
         <v>563</v>
       </c>
@@ -12049,187 +12164,187 @@
       <c r="AG96" s="78"/>
     </row>
     <row r="97" spans="4:41">
-      <c r="E97" s="90" t="s">
+      <c r="E97" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F97" s="100"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="88" t="s">
+      <c r="F97" s="89"/>
+      <c r="G97" s="90"/>
+      <c r="H97" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="I97" s="94"/>
-      <c r="J97" s="94"/>
-      <c r="K97" s="94"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="88" t="s">
+      <c r="I97" s="86"/>
+      <c r="J97" s="86"/>
+      <c r="K97" s="86"/>
+      <c r="L97" s="87"/>
+      <c r="M97" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="N97" s="94"/>
-      <c r="O97" s="94"/>
-      <c r="P97" s="89"/>
-      <c r="Q97" s="88">
+      <c r="N97" s="86"/>
+      <c r="O97" s="86"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="85">
         <v>0</v>
       </c>
-      <c r="R97" s="94"/>
-      <c r="S97" s="89"/>
-      <c r="T97" s="105" t="s">
+      <c r="R97" s="86"/>
+      <c r="S97" s="87"/>
+      <c r="T97" s="79" t="s">
         <v>559</v>
       </c>
-      <c r="U97" s="106"/>
-      <c r="V97" s="106"/>
-      <c r="W97" s="106"/>
-      <c r="X97" s="106"/>
-      <c r="Y97" s="106"/>
-      <c r="Z97" s="106"/>
-      <c r="AA97" s="106"/>
-      <c r="AB97" s="106"/>
-      <c r="AC97" s="106"/>
-      <c r="AD97" s="106"/>
-      <c r="AE97" s="106"/>
-      <c r="AF97" s="106"/>
-      <c r="AG97" s="106"/>
+      <c r="U97" s="80"/>
+      <c r="V97" s="80"/>
+      <c r="W97" s="80"/>
+      <c r="X97" s="80"/>
+      <c r="Y97" s="80"/>
+      <c r="Z97" s="80"/>
+      <c r="AA97" s="80"/>
+      <c r="AB97" s="80"/>
+      <c r="AC97" s="80"/>
+      <c r="AD97" s="80"/>
+      <c r="AE97" s="80"/>
+      <c r="AF97" s="80"/>
+      <c r="AG97" s="80"/>
     </row>
     <row r="98" spans="4:41">
-      <c r="E98" s="90"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="90" t="s">
+      <c r="E98" s="88"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-      <c r="L98" s="91"/>
-      <c r="M98" s="90" t="s">
+      <c r="I98" s="89"/>
+      <c r="J98" s="89"/>
+      <c r="K98" s="89"/>
+      <c r="L98" s="90"/>
+      <c r="M98" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="N98" s="100"/>
-      <c r="O98" s="100"/>
-      <c r="P98" s="91"/>
-      <c r="Q98" s="90">
+      <c r="N98" s="89"/>
+      <c r="O98" s="89"/>
+      <c r="P98" s="90"/>
+      <c r="Q98" s="88">
         <v>0</v>
       </c>
-      <c r="R98" s="100"/>
-      <c r="S98" s="91"/>
-      <c r="T98" s="98" t="s">
+      <c r="R98" s="89"/>
+      <c r="S98" s="90"/>
+      <c r="T98" s="81" t="s">
         <v>560</v>
       </c>
-      <c r="U98" s="98"/>
-      <c r="V98" s="98"/>
-      <c r="W98" s="98"/>
-      <c r="X98" s="98"/>
-      <c r="Y98" s="98"/>
-      <c r="Z98" s="98"/>
-      <c r="AA98" s="98"/>
-      <c r="AB98" s="98"/>
-      <c r="AC98" s="98"/>
-      <c r="AD98" s="98"/>
-      <c r="AE98" s="98"/>
-      <c r="AF98" s="98"/>
-      <c r="AG98" s="98"/>
+      <c r="U98" s="81"/>
+      <c r="V98" s="81"/>
+      <c r="W98" s="81"/>
+      <c r="X98" s="81"/>
+      <c r="Y98" s="81"/>
+      <c r="Z98" s="81"/>
+      <c r="AA98" s="81"/>
+      <c r="AB98" s="81"/>
+      <c r="AC98" s="81"/>
+      <c r="AD98" s="81"/>
+      <c r="AE98" s="81"/>
+      <c r="AF98" s="81"/>
+      <c r="AG98" s="81"/>
     </row>
     <row r="99" spans="4:41">
-      <c r="E99" s="90"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="91"/>
-      <c r="H99" s="90" t="s">
+      <c r="E99" s="88"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="90"/>
+      <c r="H99" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I99" s="100"/>
-      <c r="J99" s="100"/>
-      <c r="K99" s="100"/>
-      <c r="L99" s="91"/>
-      <c r="M99" s="90" t="s">
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="90"/>
+      <c r="M99" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="N99" s="100"/>
-      <c r="O99" s="100"/>
-      <c r="P99" s="91"/>
-      <c r="Q99" s="90">
+      <c r="N99" s="89"/>
+      <c r="O99" s="89"/>
+      <c r="P99" s="90"/>
+      <c r="Q99" s="88">
         <v>0</v>
       </c>
-      <c r="R99" s="100"/>
-      <c r="S99" s="91"/>
-      <c r="T99" s="98" t="s">
+      <c r="R99" s="89"/>
+      <c r="S99" s="90"/>
+      <c r="T99" s="81" t="s">
         <v>561</v>
       </c>
-      <c r="U99" s="98"/>
-      <c r="V99" s="98"/>
-      <c r="W99" s="98"/>
-      <c r="X99" s="98"/>
-      <c r="Y99" s="98"/>
-      <c r="Z99" s="98"/>
-      <c r="AA99" s="98"/>
-      <c r="AB99" s="98"/>
-      <c r="AC99" s="98"/>
-      <c r="AD99" s="98"/>
-      <c r="AE99" s="98"/>
-      <c r="AF99" s="98"/>
-      <c r="AG99" s="98"/>
+      <c r="U99" s="81"/>
+      <c r="V99" s="81"/>
+      <c r="W99" s="81"/>
+      <c r="X99" s="81"/>
+      <c r="Y99" s="81"/>
+      <c r="Z99" s="81"/>
+      <c r="AA99" s="81"/>
+      <c r="AB99" s="81"/>
+      <c r="AC99" s="81"/>
+      <c r="AD99" s="81"/>
+      <c r="AE99" s="81"/>
+      <c r="AF99" s="81"/>
+      <c r="AG99" s="81"/>
     </row>
     <row r="100" spans="4:41">
-      <c r="E100" s="90"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="91"/>
-      <c r="H100" s="92" t="s">
+      <c r="E100" s="88"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I100" s="95"/>
-      <c r="J100" s="95"/>
-      <c r="K100" s="95"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
       <c r="L100" s="93"/>
-      <c r="M100" s="92" t="s">
+      <c r="M100" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="N100" s="95"/>
-      <c r="O100" s="95"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="92"/>
       <c r="P100" s="93"/>
-      <c r="Q100" s="92">
+      <c r="Q100" s="91">
         <v>0</v>
       </c>
-      <c r="R100" s="95"/>
+      <c r="R100" s="92"/>
       <c r="S100" s="93"/>
-      <c r="T100" s="98" t="s">
+      <c r="T100" s="81" t="s">
         <v>562</v>
       </c>
-      <c r="U100" s="98"/>
-      <c r="V100" s="98"/>
-      <c r="W100" s="98"/>
-      <c r="X100" s="98"/>
-      <c r="Y100" s="98"/>
-      <c r="Z100" s="98"/>
-      <c r="AA100" s="98"/>
-      <c r="AB100" s="98"/>
-      <c r="AC100" s="98"/>
-      <c r="AD100" s="98"/>
-      <c r="AE100" s="98"/>
-      <c r="AF100" s="98"/>
-      <c r="AG100" s="98"/>
+      <c r="U100" s="81"/>
+      <c r="V100" s="81"/>
+      <c r="W100" s="81"/>
+      <c r="X100" s="81"/>
+      <c r="Y100" s="81"/>
+      <c r="Z100" s="81"/>
+      <c r="AA100" s="81"/>
+      <c r="AB100" s="81"/>
+      <c r="AC100" s="81"/>
+      <c r="AD100" s="81"/>
+      <c r="AE100" s="81"/>
+      <c r="AF100" s="81"/>
+      <c r="AG100" s="81"/>
     </row>
     <row r="101" spans="4:41">
-      <c r="E101" s="88" t="s">
+      <c r="E101" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="94"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="88" t="s">
+      <c r="F101" s="86"/>
+      <c r="G101" s="87"/>
+      <c r="H101" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I101" s="94"/>
-      <c r="J101" s="94"/>
-      <c r="K101" s="94"/>
-      <c r="L101" s="89"/>
-      <c r="M101" s="88" t="s">
+      <c r="I101" s="86"/>
+      <c r="J101" s="86"/>
+      <c r="K101" s="86"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N101" s="94"/>
-      <c r="O101" s="94"/>
-      <c r="P101" s="89"/>
-      <c r="Q101" s="96" t="s">
+      <c r="N101" s="86"/>
+      <c r="O101" s="86"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="R101" s="94"/>
-      <c r="S101" s="89"/>
+      <c r="R101" s="86"/>
+      <c r="S101" s="87"/>
       <c r="T101" s="78" t="s">
         <v>565</v>
       </c>
@@ -12248,26 +12363,26 @@
       <c r="AG101" s="78"/>
     </row>
     <row r="102" spans="4:41">
-      <c r="E102" s="92"/>
-      <c r="F102" s="95"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="92"/>
       <c r="G102" s="93"/>
-      <c r="H102" s="92" t="s">
+      <c r="H102" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I102" s="95"/>
-      <c r="J102" s="95"/>
-      <c r="K102" s="95"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="92"/>
       <c r="L102" s="93"/>
-      <c r="M102" s="92" t="s">
+      <c r="M102" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="N102" s="95"/>
-      <c r="O102" s="95"/>
+      <c r="N102" s="92"/>
+      <c r="O102" s="92"/>
       <c r="P102" s="93"/>
-      <c r="Q102" s="97" t="s">
+      <c r="Q102" s="100" t="s">
         <v>568</v>
       </c>
-      <c r="R102" s="95"/>
+      <c r="R102" s="92"/>
       <c r="S102" s="93"/>
       <c r="T102" s="78" t="s">
         <v>566</v>
@@ -13637,120 +13752,120 @@
       </c>
     </row>
     <row r="209" spans="4:33">
-      <c r="E209" s="79" t="s">
+      <c r="E209" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F209" s="80"/>
-      <c r="G209" s="81"/>
-      <c r="H209" s="79" t="s">
+      <c r="F209" s="83"/>
+      <c r="G209" s="84"/>
+      <c r="H209" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="I209" s="80"/>
-      <c r="J209" s="80"/>
-      <c r="K209" s="80"/>
-      <c r="L209" s="81"/>
-      <c r="M209" s="79" t="s">
+      <c r="I209" s="83"/>
+      <c r="J209" s="83"/>
+      <c r="K209" s="83"/>
+      <c r="L209" s="84"/>
+      <c r="M209" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="N209" s="80"/>
-      <c r="O209" s="80"/>
-      <c r="P209" s="80"/>
-      <c r="Q209" s="80"/>
-      <c r="R209" s="80"/>
-      <c r="S209" s="80"/>
-      <c r="T209" s="80"/>
-      <c r="U209" s="80"/>
-      <c r="V209" s="80"/>
-      <c r="W209" s="80"/>
-      <c r="X209" s="80"/>
-      <c r="Y209" s="81"/>
+      <c r="N209" s="83"/>
+      <c r="O209" s="83"/>
+      <c r="P209" s="83"/>
+      <c r="Q209" s="83"/>
+      <c r="R209" s="83"/>
+      <c r="S209" s="83"/>
+      <c r="T209" s="83"/>
+      <c r="U209" s="83"/>
+      <c r="V209" s="83"/>
+      <c r="W209" s="83"/>
+      <c r="X209" s="83"/>
+      <c r="Y209" s="84"/>
     </row>
     <row r="210" spans="4:33">
-      <c r="E210" s="88" t="s">
+      <c r="E210" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="F210" s="94"/>
-      <c r="G210" s="89"/>
-      <c r="H210" s="79" t="s">
+      <c r="F210" s="86"/>
+      <c r="G210" s="87"/>
+      <c r="H210" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="I210" s="80"/>
-      <c r="J210" s="80"/>
-      <c r="K210" s="80"/>
-      <c r="L210" s="81"/>
-      <c r="M210" s="79" t="s">
+      <c r="I210" s="83"/>
+      <c r="J210" s="83"/>
+      <c r="K210" s="83"/>
+      <c r="L210" s="84"/>
+      <c r="M210" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="N210" s="80"/>
-      <c r="O210" s="80"/>
-      <c r="P210" s="80"/>
-      <c r="Q210" s="80"/>
-      <c r="R210" s="80"/>
-      <c r="S210" s="80"/>
-      <c r="T210" s="80"/>
-      <c r="U210" s="80"/>
-      <c r="V210" s="80"/>
-      <c r="W210" s="80"/>
-      <c r="X210" s="80"/>
-      <c r="Y210" s="81"/>
+      <c r="N210" s="83"/>
+      <c r="O210" s="83"/>
+      <c r="P210" s="83"/>
+      <c r="Q210" s="83"/>
+      <c r="R210" s="83"/>
+      <c r="S210" s="83"/>
+      <c r="T210" s="83"/>
+      <c r="U210" s="83"/>
+      <c r="V210" s="83"/>
+      <c r="W210" s="83"/>
+      <c r="X210" s="83"/>
+      <c r="Y210" s="84"/>
     </row>
     <row r="211" spans="4:33">
-      <c r="E211" s="79" t="s">
+      <c r="E211" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="F211" s="80"/>
-      <c r="G211" s="81"/>
-      <c r="H211" s="79" t="s">
+      <c r="F211" s="83"/>
+      <c r="G211" s="84"/>
+      <c r="H211" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="I211" s="80"/>
-      <c r="J211" s="80"/>
-      <c r="K211" s="80"/>
-      <c r="L211" s="81"/>
-      <c r="M211" s="79" t="s">
+      <c r="I211" s="83"/>
+      <c r="J211" s="83"/>
+      <c r="K211" s="83"/>
+      <c r="L211" s="84"/>
+      <c r="M211" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="N211" s="80"/>
-      <c r="O211" s="80"/>
-      <c r="P211" s="80"/>
-      <c r="Q211" s="80"/>
-      <c r="R211" s="80"/>
-      <c r="S211" s="80"/>
-      <c r="T211" s="80"/>
-      <c r="U211" s="80"/>
-      <c r="V211" s="80"/>
-      <c r="W211" s="80"/>
-      <c r="X211" s="80"/>
-      <c r="Y211" s="81"/>
+      <c r="N211" s="83"/>
+      <c r="O211" s="83"/>
+      <c r="P211" s="83"/>
+      <c r="Q211" s="83"/>
+      <c r="R211" s="83"/>
+      <c r="S211" s="83"/>
+      <c r="T211" s="83"/>
+      <c r="U211" s="83"/>
+      <c r="V211" s="83"/>
+      <c r="W211" s="83"/>
+      <c r="X211" s="83"/>
+      <c r="Y211" s="84"/>
     </row>
     <row r="212" spans="4:33">
-      <c r="E212" s="79" t="s">
+      <c r="E212" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="F212" s="80"/>
-      <c r="G212" s="81"/>
-      <c r="H212" s="79" t="s">
+      <c r="F212" s="83"/>
+      <c r="G212" s="84"/>
+      <c r="H212" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="I212" s="80"/>
-      <c r="J212" s="80"/>
-      <c r="K212" s="80"/>
-      <c r="L212" s="81"/>
-      <c r="M212" s="79" t="s">
+      <c r="I212" s="83"/>
+      <c r="J212" s="83"/>
+      <c r="K212" s="83"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="N212" s="80"/>
-      <c r="O212" s="80"/>
-      <c r="P212" s="80"/>
-      <c r="Q212" s="80"/>
-      <c r="R212" s="80"/>
-      <c r="S212" s="80"/>
-      <c r="T212" s="80"/>
-      <c r="U212" s="80"/>
-      <c r="V212" s="80"/>
-      <c r="W212" s="80"/>
-      <c r="X212" s="80"/>
-      <c r="Y212" s="81"/>
+      <c r="N212" s="83"/>
+      <c r="O212" s="83"/>
+      <c r="P212" s="83"/>
+      <c r="Q212" s="83"/>
+      <c r="R212" s="83"/>
+      <c r="S212" s="83"/>
+      <c r="T212" s="83"/>
+      <c r="U212" s="83"/>
+      <c r="V212" s="83"/>
+      <c r="W212" s="83"/>
+      <c r="X212" s="83"/>
+      <c r="Y212" s="84"/>
     </row>
     <row r="214" spans="4:33">
       <c r="D214" t="s">
@@ -15152,63 +15267,63 @@
       </c>
     </row>
     <row r="343" spans="5:19">
-      <c r="F343" s="79" t="s">
+      <c r="F343" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="G343" s="80"/>
-      <c r="H343" s="80"/>
-      <c r="I343" s="80"/>
-      <c r="J343" s="81"/>
+      <c r="G343" s="83"/>
+      <c r="H343" s="83"/>
+      <c r="I343" s="83"/>
+      <c r="J343" s="84"/>
     </row>
     <row r="344" spans="5:19">
-      <c r="F344" s="99" t="s">
+      <c r="F344" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="G344" s="94"/>
-      <c r="H344" s="94"/>
-      <c r="I344" s="94"/>
-      <c r="J344" s="89"/>
+      <c r="G344" s="86"/>
+      <c r="H344" s="86"/>
+      <c r="I344" s="86"/>
+      <c r="J344" s="87"/>
       <c r="R344" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="345" spans="5:19">
-      <c r="F345" s="92"/>
-      <c r="G345" s="95"/>
-      <c r="H345" s="95"/>
-      <c r="I345" s="95"/>
+      <c r="F345" s="91"/>
+      <c r="G345" s="92"/>
+      <c r="H345" s="92"/>
+      <c r="I345" s="92"/>
       <c r="J345" s="93"/>
       <c r="R345" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="346" spans="5:19">
-      <c r="F346" s="99" t="s">
+      <c r="F346" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="G346" s="94"/>
-      <c r="H346" s="94"/>
-      <c r="I346" s="94"/>
-      <c r="J346" s="89"/>
+      <c r="G346" s="86"/>
+      <c r="H346" s="86"/>
+      <c r="I346" s="86"/>
+      <c r="J346" s="87"/>
       <c r="R346" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="347" spans="5:19">
-      <c r="F347" s="90"/>
-      <c r="G347" s="100"/>
-      <c r="H347" s="100"/>
-      <c r="I347" s="100"/>
-      <c r="J347" s="91"/>
+      <c r="F347" s="88"/>
+      <c r="G347" s="89"/>
+      <c r="H347" s="89"/>
+      <c r="I347" s="89"/>
+      <c r="J347" s="90"/>
       <c r="R347" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="348" spans="5:19">
-      <c r="F348" s="92"/>
-      <c r="G348" s="95"/>
-      <c r="H348" s="95"/>
-      <c r="I348" s="95"/>
+      <c r="F348" s="91"/>
+      <c r="G348" s="92"/>
+      <c r="H348" s="92"/>
+      <c r="I348" s="92"/>
       <c r="J348" s="93"/>
       <c r="R348" t="s">
         <v>186</v>
@@ -15225,115 +15340,115 @@
       </c>
     </row>
     <row r="355" spans="4:26">
-      <c r="E355" s="88" t="s">
+      <c r="E355" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="F355" s="94"/>
-      <c r="G355" s="94"/>
-      <c r="H355" s="94"/>
-      <c r="I355" s="89"/>
-      <c r="J355" s="88" t="s">
+      <c r="F355" s="86"/>
+      <c r="G355" s="86"/>
+      <c r="H355" s="86"/>
+      <c r="I355" s="87"/>
+      <c r="J355" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="K355" s="94"/>
-      <c r="L355" s="94"/>
-      <c r="M355" s="94"/>
-      <c r="N355" s="94"/>
-      <c r="O355" s="94"/>
-      <c r="P355" s="94"/>
-      <c r="Q355" s="94"/>
-      <c r="R355" s="94"/>
-      <c r="S355" s="94"/>
-      <c r="T355" s="94"/>
-      <c r="U355" s="94"/>
-      <c r="V355" s="94"/>
-      <c r="W355" s="94"/>
-      <c r="X355" s="94"/>
-      <c r="Y355" s="94"/>
-      <c r="Z355" s="89"/>
+      <c r="K355" s="86"/>
+      <c r="L355" s="86"/>
+      <c r="M355" s="86"/>
+      <c r="N355" s="86"/>
+      <c r="O355" s="86"/>
+      <c r="P355" s="86"/>
+      <c r="Q355" s="86"/>
+      <c r="R355" s="86"/>
+      <c r="S355" s="86"/>
+      <c r="T355" s="86"/>
+      <c r="U355" s="86"/>
+      <c r="V355" s="86"/>
+      <c r="W355" s="86"/>
+      <c r="X355" s="86"/>
+      <c r="Y355" s="86"/>
+      <c r="Z355" s="87"/>
     </row>
     <row r="356" spans="4:26">
-      <c r="E356" s="79" t="s">
+      <c r="E356" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="F356" s="80"/>
-      <c r="G356" s="80"/>
-      <c r="H356" s="80"/>
-      <c r="I356" s="81"/>
-      <c r="J356" s="79" t="s">
+      <c r="F356" s="83"/>
+      <c r="G356" s="83"/>
+      <c r="H356" s="83"/>
+      <c r="I356" s="84"/>
+      <c r="J356" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="K356" s="80"/>
-      <c r="L356" s="80"/>
-      <c r="M356" s="80"/>
-      <c r="N356" s="80"/>
-      <c r="O356" s="80"/>
-      <c r="P356" s="80"/>
-      <c r="Q356" s="80"/>
-      <c r="R356" s="80"/>
-      <c r="S356" s="80"/>
-      <c r="T356" s="80"/>
-      <c r="U356" s="80"/>
-      <c r="V356" s="80"/>
-      <c r="W356" s="80"/>
-      <c r="X356" s="80"/>
-      <c r="Y356" s="80"/>
-      <c r="Z356" s="81"/>
+      <c r="K356" s="83"/>
+      <c r="L356" s="83"/>
+      <c r="M356" s="83"/>
+      <c r="N356" s="83"/>
+      <c r="O356" s="83"/>
+      <c r="P356" s="83"/>
+      <c r="Q356" s="83"/>
+      <c r="R356" s="83"/>
+      <c r="S356" s="83"/>
+      <c r="T356" s="83"/>
+      <c r="U356" s="83"/>
+      <c r="V356" s="83"/>
+      <c r="W356" s="83"/>
+      <c r="X356" s="83"/>
+      <c r="Y356" s="83"/>
+      <c r="Z356" s="84"/>
     </row>
     <row r="357" spans="4:26">
-      <c r="E357" s="79" t="s">
+      <c r="E357" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="F357" s="80"/>
-      <c r="G357" s="80"/>
-      <c r="H357" s="80"/>
-      <c r="I357" s="81"/>
-      <c r="J357" s="79" t="s">
+      <c r="F357" s="83"/>
+      <c r="G357" s="83"/>
+      <c r="H357" s="83"/>
+      <c r="I357" s="84"/>
+      <c r="J357" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="K357" s="80"/>
-      <c r="L357" s="80"/>
-      <c r="M357" s="80"/>
-      <c r="N357" s="80"/>
-      <c r="O357" s="80"/>
-      <c r="P357" s="80"/>
-      <c r="Q357" s="80"/>
-      <c r="R357" s="80"/>
-      <c r="S357" s="80"/>
-      <c r="T357" s="80"/>
-      <c r="U357" s="80"/>
-      <c r="V357" s="80"/>
-      <c r="W357" s="80"/>
-      <c r="X357" s="80"/>
-      <c r="Y357" s="80"/>
-      <c r="Z357" s="81"/>
+      <c r="K357" s="83"/>
+      <c r="L357" s="83"/>
+      <c r="M357" s="83"/>
+      <c r="N357" s="83"/>
+      <c r="O357" s="83"/>
+      <c r="P357" s="83"/>
+      <c r="Q357" s="83"/>
+      <c r="R357" s="83"/>
+      <c r="S357" s="83"/>
+      <c r="T357" s="83"/>
+      <c r="U357" s="83"/>
+      <c r="V357" s="83"/>
+      <c r="W357" s="83"/>
+      <c r="X357" s="83"/>
+      <c r="Y357" s="83"/>
+      <c r="Z357" s="84"/>
     </row>
     <row r="358" spans="4:26">
-      <c r="E358" s="79" t="s">
+      <c r="E358" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="F358" s="80"/>
-      <c r="G358" s="80"/>
-      <c r="H358" s="80"/>
-      <c r="I358" s="81"/>
-      <c r="J358" s="92" t="s">
+      <c r="F358" s="83"/>
+      <c r="G358" s="83"/>
+      <c r="H358" s="83"/>
+      <c r="I358" s="84"/>
+      <c r="J358" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="K358" s="95"/>
-      <c r="L358" s="95"/>
-      <c r="M358" s="95"/>
-      <c r="N358" s="95"/>
-      <c r="O358" s="95"/>
-      <c r="P358" s="95"/>
-      <c r="Q358" s="95"/>
-      <c r="R358" s="95"/>
-      <c r="S358" s="95"/>
-      <c r="T358" s="95"/>
-      <c r="U358" s="95"/>
-      <c r="V358" s="95"/>
-      <c r="W358" s="95"/>
-      <c r="X358" s="95"/>
-      <c r="Y358" s="95"/>
+      <c r="K358" s="92"/>
+      <c r="L358" s="92"/>
+      <c r="M358" s="92"/>
+      <c r="N358" s="92"/>
+      <c r="O358" s="92"/>
+      <c r="P358" s="92"/>
+      <c r="Q358" s="92"/>
+      <c r="R358" s="92"/>
+      <c r="S358" s="92"/>
+      <c r="T358" s="92"/>
+      <c r="U358" s="92"/>
+      <c r="V358" s="92"/>
+      <c r="W358" s="92"/>
+      <c r="X358" s="92"/>
+      <c r="Y358" s="92"/>
       <c r="Z358" s="93"/>
     </row>
     <row r="360" spans="4:26">
@@ -15674,168 +15789,168 @@
       </c>
     </row>
     <row r="433" spans="4:25">
-      <c r="D433" s="88" t="s">
+      <c r="D433" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="E433" s="89"/>
-      <c r="F433" s="79" t="s">
+      <c r="E433" s="87"/>
+      <c r="F433" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="G433" s="80"/>
-      <c r="H433" s="80"/>
-      <c r="I433" s="80"/>
-      <c r="J433" s="80"/>
-      <c r="K433" s="80"/>
-      <c r="L433" s="80"/>
-      <c r="M433" s="80"/>
-      <c r="N433" s="80"/>
-      <c r="O433" s="81"/>
-      <c r="P433" s="79" t="s">
+      <c r="G433" s="83"/>
+      <c r="H433" s="83"/>
+      <c r="I433" s="83"/>
+      <c r="J433" s="83"/>
+      <c r="K433" s="83"/>
+      <c r="L433" s="83"/>
+      <c r="M433" s="83"/>
+      <c r="N433" s="83"/>
+      <c r="O433" s="84"/>
+      <c r="P433" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="Q433" s="80"/>
-      <c r="R433" s="80"/>
-      <c r="S433" s="80"/>
-      <c r="T433" s="80"/>
-      <c r="U433" s="80"/>
-      <c r="V433" s="80"/>
-      <c r="W433" s="80"/>
-      <c r="X433" s="80"/>
-      <c r="Y433" s="81"/>
+      <c r="Q433" s="83"/>
+      <c r="R433" s="83"/>
+      <c r="S433" s="83"/>
+      <c r="T433" s="83"/>
+      <c r="U433" s="83"/>
+      <c r="V433" s="83"/>
+      <c r="W433" s="83"/>
+      <c r="X433" s="83"/>
+      <c r="Y433" s="84"/>
     </row>
     <row r="434" spans="4:25">
-      <c r="D434" s="90"/>
-      <c r="E434" s="91"/>
-      <c r="F434" s="82" t="s">
+      <c r="D434" s="88"/>
+      <c r="E434" s="90"/>
+      <c r="F434" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="G434" s="83"/>
-      <c r="H434" s="83"/>
-      <c r="I434" s="83"/>
-      <c r="J434" s="83"/>
-      <c r="K434" s="83"/>
-      <c r="L434" s="83"/>
-      <c r="M434" s="83"/>
-      <c r="N434" s="83"/>
-      <c r="O434" s="84"/>
-      <c r="P434" s="82" t="s">
+      <c r="G434" s="102"/>
+      <c r="H434" s="102"/>
+      <c r="I434" s="102"/>
+      <c r="J434" s="102"/>
+      <c r="K434" s="102"/>
+      <c r="L434" s="102"/>
+      <c r="M434" s="102"/>
+      <c r="N434" s="102"/>
+      <c r="O434" s="103"/>
+      <c r="P434" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="Q434" s="83"/>
-      <c r="R434" s="83"/>
-      <c r="S434" s="83"/>
-      <c r="T434" s="83"/>
-      <c r="U434" s="83"/>
-      <c r="V434" s="83"/>
-      <c r="W434" s="83"/>
-      <c r="X434" s="83"/>
-      <c r="Y434" s="84"/>
+      <c r="Q434" s="102"/>
+      <c r="R434" s="102"/>
+      <c r="S434" s="102"/>
+      <c r="T434" s="102"/>
+      <c r="U434" s="102"/>
+      <c r="V434" s="102"/>
+      <c r="W434" s="102"/>
+      <c r="X434" s="102"/>
+      <c r="Y434" s="103"/>
     </row>
     <row r="435" spans="4:25">
-      <c r="D435" s="92"/>
+      <c r="D435" s="91"/>
       <c r="E435" s="93"/>
-      <c r="F435" s="85"/>
-      <c r="G435" s="86"/>
-      <c r="H435" s="86"/>
-      <c r="I435" s="86"/>
-      <c r="J435" s="86"/>
-      <c r="K435" s="86"/>
-      <c r="L435" s="86"/>
-      <c r="M435" s="86"/>
-      <c r="N435" s="86"/>
-      <c r="O435" s="87"/>
-      <c r="P435" s="85"/>
-      <c r="Q435" s="86"/>
-      <c r="R435" s="86"/>
-      <c r="S435" s="86"/>
-      <c r="T435" s="86"/>
-      <c r="U435" s="86"/>
-      <c r="V435" s="86"/>
-      <c r="W435" s="86"/>
-      <c r="X435" s="86"/>
-      <c r="Y435" s="87"/>
+      <c r="F435" s="104"/>
+      <c r="G435" s="105"/>
+      <c r="H435" s="105"/>
+      <c r="I435" s="105"/>
+      <c r="J435" s="105"/>
+      <c r="K435" s="105"/>
+      <c r="L435" s="105"/>
+      <c r="M435" s="105"/>
+      <c r="N435" s="105"/>
+      <c r="O435" s="106"/>
+      <c r="P435" s="104"/>
+      <c r="Q435" s="105"/>
+      <c r="R435" s="105"/>
+      <c r="S435" s="105"/>
+      <c r="T435" s="105"/>
+      <c r="U435" s="105"/>
+      <c r="V435" s="105"/>
+      <c r="W435" s="105"/>
+      <c r="X435" s="105"/>
+      <c r="Y435" s="106"/>
     </row>
     <row r="436" spans="4:25">
-      <c r="D436" s="88" t="s">
+      <c r="D436" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="E436" s="89"/>
-      <c r="F436" s="79" t="s">
+      <c r="E436" s="87"/>
+      <c r="F436" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="G436" s="80"/>
-      <c r="H436" s="80"/>
-      <c r="I436" s="80"/>
-      <c r="J436" s="80"/>
-      <c r="K436" s="80"/>
-      <c r="L436" s="80"/>
-      <c r="M436" s="80"/>
-      <c r="N436" s="80"/>
-      <c r="O436" s="81"/>
-      <c r="P436" s="79" t="s">
+      <c r="G436" s="83"/>
+      <c r="H436" s="83"/>
+      <c r="I436" s="83"/>
+      <c r="J436" s="83"/>
+      <c r="K436" s="83"/>
+      <c r="L436" s="83"/>
+      <c r="M436" s="83"/>
+      <c r="N436" s="83"/>
+      <c r="O436" s="84"/>
+      <c r="P436" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="Q436" s="80"/>
-      <c r="R436" s="80"/>
-      <c r="S436" s="80"/>
-      <c r="T436" s="80"/>
-      <c r="U436" s="80"/>
-      <c r="V436" s="80"/>
-      <c r="W436" s="80"/>
-      <c r="X436" s="80"/>
-      <c r="Y436" s="81"/>
+      <c r="Q436" s="83"/>
+      <c r="R436" s="83"/>
+      <c r="S436" s="83"/>
+      <c r="T436" s="83"/>
+      <c r="U436" s="83"/>
+      <c r="V436" s="83"/>
+      <c r="W436" s="83"/>
+      <c r="X436" s="83"/>
+      <c r="Y436" s="84"/>
     </row>
     <row r="437" spans="4:25">
-      <c r="D437" s="90"/>
-      <c r="E437" s="91"/>
-      <c r="F437" s="82" t="s">
+      <c r="D437" s="88"/>
+      <c r="E437" s="90"/>
+      <c r="F437" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="G437" s="83"/>
-      <c r="H437" s="83"/>
-      <c r="I437" s="83"/>
-      <c r="J437" s="83"/>
-      <c r="K437" s="83"/>
-      <c r="L437" s="83"/>
-      <c r="M437" s="83"/>
-      <c r="N437" s="83"/>
-      <c r="O437" s="84"/>
-      <c r="P437" s="82" t="s">
+      <c r="G437" s="102"/>
+      <c r="H437" s="102"/>
+      <c r="I437" s="102"/>
+      <c r="J437" s="102"/>
+      <c r="K437" s="102"/>
+      <c r="L437" s="102"/>
+      <c r="M437" s="102"/>
+      <c r="N437" s="102"/>
+      <c r="O437" s="103"/>
+      <c r="P437" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="Q437" s="83"/>
-      <c r="R437" s="83"/>
-      <c r="S437" s="83"/>
-      <c r="T437" s="83"/>
-      <c r="U437" s="83"/>
-      <c r="V437" s="83"/>
-      <c r="W437" s="83"/>
-      <c r="X437" s="83"/>
-      <c r="Y437" s="84"/>
+      <c r="Q437" s="102"/>
+      <c r="R437" s="102"/>
+      <c r="S437" s="102"/>
+      <c r="T437" s="102"/>
+      <c r="U437" s="102"/>
+      <c r="V437" s="102"/>
+      <c r="W437" s="102"/>
+      <c r="X437" s="102"/>
+      <c r="Y437" s="103"/>
     </row>
     <row r="438" spans="4:25">
-      <c r="D438" s="92"/>
+      <c r="D438" s="91"/>
       <c r="E438" s="93"/>
-      <c r="F438" s="85"/>
-      <c r="G438" s="86"/>
-      <c r="H438" s="86"/>
-      <c r="I438" s="86"/>
-      <c r="J438" s="86"/>
-      <c r="K438" s="86"/>
-      <c r="L438" s="86"/>
-      <c r="M438" s="86"/>
-      <c r="N438" s="86"/>
-      <c r="O438" s="87"/>
-      <c r="P438" s="85"/>
-      <c r="Q438" s="86"/>
-      <c r="R438" s="86"/>
-      <c r="S438" s="86"/>
-      <c r="T438" s="86"/>
-      <c r="U438" s="86"/>
-      <c r="V438" s="86"/>
-      <c r="W438" s="86"/>
-      <c r="X438" s="86"/>
-      <c r="Y438" s="87"/>
+      <c r="F438" s="104"/>
+      <c r="G438" s="105"/>
+      <c r="H438" s="105"/>
+      <c r="I438" s="105"/>
+      <c r="J438" s="105"/>
+      <c r="K438" s="105"/>
+      <c r="L438" s="105"/>
+      <c r="M438" s="105"/>
+      <c r="N438" s="105"/>
+      <c r="O438" s="106"/>
+      <c r="P438" s="104"/>
+      <c r="Q438" s="105"/>
+      <c r="R438" s="105"/>
+      <c r="S438" s="105"/>
+      <c r="T438" s="105"/>
+      <c r="U438" s="105"/>
+      <c r="V438" s="105"/>
+      <c r="W438" s="105"/>
+      <c r="X438" s="105"/>
+      <c r="Y438" s="106"/>
     </row>
     <row r="440" spans="4:25">
       <c r="D440" t="s">
@@ -16275,12 +16390,12 @@
       <c r="V489" s="78"/>
     </row>
     <row r="490" spans="4:22">
-      <c r="D490" s="79" t="s">
+      <c r="D490" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="E490" s="80"/>
-      <c r="F490" s="80"/>
-      <c r="G490" s="81"/>
+      <c r="E490" s="83"/>
+      <c r="F490" s="83"/>
+      <c r="G490" s="84"/>
       <c r="H490" s="78" t="s">
         <v>302</v>
       </c>
@@ -16300,12 +16415,12 @@
       <c r="V490" s="78"/>
     </row>
     <row r="491" spans="4:22">
-      <c r="D491" s="79" t="s">
+      <c r="D491" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="E491" s="80"/>
-      <c r="F491" s="80"/>
-      <c r="G491" s="81"/>
+      <c r="E491" s="83"/>
+      <c r="F491" s="83"/>
+      <c r="G491" s="84"/>
       <c r="H491" s="78" t="s">
         <v>303</v>
       </c>
@@ -16857,16 +16972,75 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="T94:AG94"/>
-    <mergeCell ref="T95:AG95"/>
-    <mergeCell ref="T96:AG96"/>
-    <mergeCell ref="T97:AG97"/>
-    <mergeCell ref="T98:AG98"/>
-    <mergeCell ref="Q94:S94"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="Q96:S96"/>
-    <mergeCell ref="Q97:S97"/>
-    <mergeCell ref="Q98:S98"/>
+    <mergeCell ref="H491:V491"/>
+    <mergeCell ref="D491:G491"/>
+    <mergeCell ref="D490:G490"/>
+    <mergeCell ref="H490:V490"/>
+    <mergeCell ref="H485:V485"/>
+    <mergeCell ref="H486:V486"/>
+    <mergeCell ref="H487:V487"/>
+    <mergeCell ref="H488:V488"/>
+    <mergeCell ref="H489:V489"/>
+    <mergeCell ref="D485:G485"/>
+    <mergeCell ref="D486:G486"/>
+    <mergeCell ref="D487:G487"/>
+    <mergeCell ref="D488:G488"/>
+    <mergeCell ref="D489:G489"/>
+    <mergeCell ref="P433:Y433"/>
+    <mergeCell ref="P434:Y435"/>
+    <mergeCell ref="P436:Y436"/>
+    <mergeCell ref="P437:Y438"/>
+    <mergeCell ref="D484:G484"/>
+    <mergeCell ref="H484:V484"/>
+    <mergeCell ref="D433:E435"/>
+    <mergeCell ref="D436:E438"/>
+    <mergeCell ref="F433:O433"/>
+    <mergeCell ref="F434:O435"/>
+    <mergeCell ref="F436:O436"/>
+    <mergeCell ref="F437:O438"/>
+    <mergeCell ref="E210:G210"/>
+    <mergeCell ref="H210:L210"/>
+    <mergeCell ref="M210:Y210"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="H212:L212"/>
+    <mergeCell ref="M212:Y212"/>
+    <mergeCell ref="E211:G211"/>
+    <mergeCell ref="H211:L211"/>
+    <mergeCell ref="M211:Y211"/>
+    <mergeCell ref="M209:Y209"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="Q100:S100"/>
+    <mergeCell ref="Q101:S101"/>
+    <mergeCell ref="Q102:S102"/>
+    <mergeCell ref="T99:AG99"/>
+    <mergeCell ref="T100:AG100"/>
+    <mergeCell ref="T101:AG101"/>
+    <mergeCell ref="T102:AG102"/>
+    <mergeCell ref="J358:Z358"/>
+    <mergeCell ref="E358:I358"/>
+    <mergeCell ref="F343:J343"/>
+    <mergeCell ref="F344:J345"/>
+    <mergeCell ref="F346:J348"/>
+    <mergeCell ref="E355:I355"/>
+    <mergeCell ref="E356:I356"/>
+    <mergeCell ref="E12:J13"/>
+    <mergeCell ref="M12:Q13"/>
+    <mergeCell ref="T12:Y13"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
     <mergeCell ref="E357:I357"/>
     <mergeCell ref="J356:Z356"/>
     <mergeCell ref="J355:Z355"/>
@@ -16891,75 +17065,16 @@
     <mergeCell ref="Q99:S99"/>
     <mergeCell ref="E209:G209"/>
     <mergeCell ref="H209:L209"/>
-    <mergeCell ref="J358:Z358"/>
-    <mergeCell ref="E358:I358"/>
-    <mergeCell ref="F343:J343"/>
-    <mergeCell ref="F344:J345"/>
-    <mergeCell ref="F346:J348"/>
-    <mergeCell ref="E355:I355"/>
-    <mergeCell ref="E356:I356"/>
-    <mergeCell ref="E12:J13"/>
-    <mergeCell ref="M12:Q13"/>
-    <mergeCell ref="T12:Y13"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="M209:Y209"/>
-    <mergeCell ref="M101:P101"/>
-    <mergeCell ref="M102:P102"/>
-    <mergeCell ref="Q100:S100"/>
-    <mergeCell ref="Q101:S101"/>
-    <mergeCell ref="Q102:S102"/>
-    <mergeCell ref="T99:AG99"/>
-    <mergeCell ref="T100:AG100"/>
-    <mergeCell ref="T101:AG101"/>
-    <mergeCell ref="T102:AG102"/>
-    <mergeCell ref="E210:G210"/>
-    <mergeCell ref="H210:L210"/>
-    <mergeCell ref="M210:Y210"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="H212:L212"/>
-    <mergeCell ref="M212:Y212"/>
-    <mergeCell ref="E211:G211"/>
-    <mergeCell ref="H211:L211"/>
-    <mergeCell ref="M211:Y211"/>
-    <mergeCell ref="P433:Y433"/>
-    <mergeCell ref="P434:Y435"/>
-    <mergeCell ref="P436:Y436"/>
-    <mergeCell ref="P437:Y438"/>
-    <mergeCell ref="D484:G484"/>
-    <mergeCell ref="H484:V484"/>
-    <mergeCell ref="D433:E435"/>
-    <mergeCell ref="D436:E438"/>
-    <mergeCell ref="F433:O433"/>
-    <mergeCell ref="F434:O435"/>
-    <mergeCell ref="F436:O436"/>
-    <mergeCell ref="F437:O438"/>
-    <mergeCell ref="H491:V491"/>
-    <mergeCell ref="D491:G491"/>
-    <mergeCell ref="D490:G490"/>
-    <mergeCell ref="H490:V490"/>
-    <mergeCell ref="H485:V485"/>
-    <mergeCell ref="H486:V486"/>
-    <mergeCell ref="H487:V487"/>
-    <mergeCell ref="H488:V488"/>
-    <mergeCell ref="H489:V489"/>
-    <mergeCell ref="D485:G485"/>
-    <mergeCell ref="D486:G486"/>
-    <mergeCell ref="D487:G487"/>
-    <mergeCell ref="D488:G488"/>
-    <mergeCell ref="D489:G489"/>
+    <mergeCell ref="T94:AG94"/>
+    <mergeCell ref="T95:AG95"/>
+    <mergeCell ref="T96:AG96"/>
+    <mergeCell ref="T97:AG97"/>
+    <mergeCell ref="T98:AG98"/>
+    <mergeCell ref="Q94:S94"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="Q96:S96"/>
+    <mergeCell ref="Q97:S97"/>
+    <mergeCell ref="Q98:S98"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -16982,1068 +17097,1068 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:35">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="113" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="107" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="113" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="115"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="109"/>
     </row>
     <row r="2" spans="2:35">
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="112"/>
     </row>
     <row r="3" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="88" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="107" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="107" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="109"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="115"/>
     </row>
     <row r="4" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B4" s="90"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="93"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="107" t="s">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="109"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
     </row>
     <row r="5" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B5" s="90"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="88" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="107" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="107" t="s">
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="109"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="114"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="115"/>
     </row>
     <row r="6" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B6" s="92"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="93"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="93"/>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="113" t="s">
         <v>320</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="107" t="s">
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="109"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="115"/>
     </row>
     <row r="7" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="88" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="107" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107" t="s">
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="109"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="8" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B8" s="90"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="107" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="107" t="s">
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="109"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="115"/>
     </row>
     <row r="9" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B9" s="90"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="107" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="107" t="s">
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="115"/>
     </row>
     <row r="10" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B10" s="90"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="93"/>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="107" t="s">
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
     </row>
     <row r="11" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="88" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="107" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="107" t="s">
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="115"/>
     </row>
     <row r="12" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B12" s="92"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="93"/>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="107" t="s">
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="115"/>
     </row>
     <row r="13" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="88" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="107" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="107" t="s">
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="115"/>
     </row>
     <row r="14" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="107" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="107" t="s">
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="115"/>
     </row>
     <row r="15" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="107" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="107" t="s">
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="108"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="115"/>
     </row>
     <row r="16" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B16" s="90"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="93"/>
-      <c r="I16" s="107" t="s">
+      <c r="I16" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="107" t="s">
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="115"/>
     </row>
     <row r="17" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="88" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="107" t="s">
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="107" t="s">
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="115"/>
     </row>
     <row r="18" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="107" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="107" t="s">
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="113" t="s">
         <v>339</v>
       </c>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="115"/>
     </row>
     <row r="19" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="107" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="107" t="s">
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="108"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="115"/>
     </row>
     <row r="20" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B20" s="92"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="93"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="93"/>
-      <c r="I20" s="110" t="s">
+      <c r="I20" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="110" t="s">
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="111"/>
-      <c r="AH20" s="111"/>
-      <c r="AI20" s="112"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="118"/>
     </row>
     <row r="21" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="85" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="88" t="s">
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="107" t="s">
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="107" t="s">
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="115"/>
     </row>
     <row r="22" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="107" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="107" t="s">
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="115"/>
     </row>
     <row r="23" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="107" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="107" t="s">
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="115"/>
     </row>
     <row r="24" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="93"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="93"/>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="107" t="s">
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="108"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="114"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="115"/>
     </row>
     <row r="25" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="88" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="107" t="s">
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="107" t="s">
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="108"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="114"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="114"/>
+      <c r="AA25" s="114"/>
+      <c r="AB25" s="114"/>
+      <c r="AC25" s="114"/>
+      <c r="AD25" s="114"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="114"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="114"/>
+      <c r="AI25" s="115"/>
     </row>
     <row r="26" spans="2:35" ht="18.75" customHeight="1">
-      <c r="B26" s="92"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="93"/>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="107" t="s">
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="108"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="114"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="115"/>
     </row>
     <row r="28" spans="2:35">
       <c r="B28" t="s">
@@ -21941,58 +22056,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N1:AI2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N3:AI3"/>
-    <mergeCell ref="N4:AI4"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="I1:M2"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:AI5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:AI6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:AI7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="N8:AI8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:AI9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="N10:AI10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:AI11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="N12:AI12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="N13:AI13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:AI14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:AI15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:AI16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:AI17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:AI18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:AI19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:AI20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="N21:AI21"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:AI22"/>
-    <mergeCell ref="B7:D12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="E13:H16"/>
-    <mergeCell ref="B13:D20"/>
-    <mergeCell ref="E17:H20"/>
     <mergeCell ref="B21:D24"/>
     <mergeCell ref="I25:M25"/>
     <mergeCell ref="N25:AI25"/>
@@ -22005,6 +22068,58 @@
     <mergeCell ref="N24:AI24"/>
     <mergeCell ref="I26:M26"/>
     <mergeCell ref="N26:AI26"/>
+    <mergeCell ref="B7:D12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="E13:H16"/>
+    <mergeCell ref="B13:D20"/>
+    <mergeCell ref="E17:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:AI20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="N21:AI21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:AI22"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:AI17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:AI18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="N19:AI19"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="N14:AI14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:AI15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:AI16"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:AI11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="N12:AI12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="N13:AI13"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="N8:AI8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:AI9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="N10:AI10"/>
+    <mergeCell ref="N5:AI5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:AI6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:AI7"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="I1:M2"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N1:AI2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N3:AI3"/>
+    <mergeCell ref="N4:AI4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22343,10 +22458,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z256"/>
+  <dimension ref="A1:Z274"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259:Z267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -28868,6 +28983,439 @@
       <c r="Y256" s="74"/>
       <c r="Z256" s="75"/>
     </row>
+    <row r="259" spans="2:26">
+      <c r="B259" s="66" t="s">
+        <v>875</v>
+      </c>
+      <c r="C259" s="57"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="57"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="57"/>
+      <c r="H259" s="57"/>
+      <c r="I259" s="57"/>
+      <c r="J259" s="57"/>
+      <c r="K259" s="57"/>
+      <c r="L259" s="57"/>
+      <c r="M259" s="57"/>
+      <c r="N259" s="57"/>
+      <c r="O259" s="57"/>
+      <c r="P259" s="57"/>
+      <c r="Q259" s="57"/>
+      <c r="R259" s="57"/>
+      <c r="S259" s="57"/>
+      <c r="T259" s="57"/>
+      <c r="U259" s="57"/>
+      <c r="V259" s="57"/>
+      <c r="W259" s="57"/>
+      <c r="X259" s="57"/>
+      <c r="Y259" s="57"/>
+      <c r="Z259" s="58"/>
+    </row>
+    <row r="260" spans="2:26">
+      <c r="B260" s="59"/>
+      <c r="C260" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="D260" s="60"/>
+      <c r="E260" s="60"/>
+      <c r="F260" s="60"/>
+      <c r="G260" s="60"/>
+      <c r="H260" s="60"/>
+      <c r="I260" s="60"/>
+      <c r="J260" s="60"/>
+      <c r="K260" s="60"/>
+      <c r="L260" s="60"/>
+      <c r="M260" s="60"/>
+      <c r="N260" s="60"/>
+      <c r="O260" s="60"/>
+      <c r="P260" s="60"/>
+      <c r="Q260" s="60"/>
+      <c r="R260" s="60"/>
+      <c r="S260" s="60"/>
+      <c r="T260" s="60"/>
+      <c r="U260" s="60"/>
+      <c r="V260" s="60"/>
+      <c r="W260" s="60"/>
+      <c r="X260" s="60"/>
+      <c r="Y260" s="60"/>
+      <c r="Z260" s="61"/>
+    </row>
+    <row r="261" spans="2:26">
+      <c r="B261" s="59"/>
+      <c r="C261" s="60"/>
+      <c r="D261" s="60" t="s">
+        <v>590</v>
+      </c>
+      <c r="E261" s="60"/>
+      <c r="F261" s="60"/>
+      <c r="G261" s="60"/>
+      <c r="H261" s="60"/>
+      <c r="I261" s="60"/>
+      <c r="J261" s="60"/>
+      <c r="K261" s="60"/>
+      <c r="L261" s="60"/>
+      <c r="M261" s="60"/>
+      <c r="N261" s="60"/>
+      <c r="O261" s="60"/>
+      <c r="P261" s="60"/>
+      <c r="Q261" s="60"/>
+      <c r="R261" s="60"/>
+      <c r="S261" s="60"/>
+      <c r="T261" s="60"/>
+      <c r="U261" s="60"/>
+      <c r="V261" s="60"/>
+      <c r="W261" s="60"/>
+      <c r="X261" s="60"/>
+      <c r="Y261" s="60"/>
+      <c r="Z261" s="61"/>
+    </row>
+    <row r="262" spans="2:26">
+      <c r="B262" s="59"/>
+      <c r="C262" s="60"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60" t="s">
+        <v>877</v>
+      </c>
+      <c r="F262" s="60"/>
+      <c r="G262" s="60"/>
+      <c r="H262" s="60"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="60"/>
+      <c r="K262" s="60"/>
+      <c r="L262" s="60"/>
+      <c r="M262" s="60"/>
+      <c r="N262" s="60"/>
+      <c r="O262" s="60"/>
+      <c r="P262" s="60"/>
+      <c r="Q262" s="60"/>
+      <c r="R262" s="60"/>
+      <c r="S262" s="60"/>
+      <c r="T262" s="60"/>
+      <c r="U262" s="60"/>
+      <c r="V262" s="60"/>
+      <c r="W262" s="60"/>
+      <c r="X262" s="60"/>
+      <c r="Y262" s="60"/>
+      <c r="Z262" s="61"/>
+    </row>
+    <row r="263" spans="2:26">
+      <c r="B263" s="59"/>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="F263" s="60"/>
+      <c r="G263" s="60"/>
+      <c r="H263" s="60"/>
+      <c r="I263" s="60"/>
+      <c r="J263" s="60"/>
+      <c r="K263" s="60"/>
+      <c r="L263" s="60"/>
+      <c r="M263" s="60"/>
+      <c r="N263" s="60"/>
+      <c r="O263" s="60"/>
+      <c r="P263" s="60"/>
+      <c r="Q263" s="60"/>
+      <c r="R263" s="60"/>
+      <c r="S263" s="60"/>
+      <c r="T263" s="60"/>
+      <c r="U263" s="60"/>
+      <c r="V263" s="60"/>
+      <c r="W263" s="60"/>
+      <c r="X263" s="60"/>
+      <c r="Y263" s="60"/>
+      <c r="Z263" s="61"/>
+    </row>
+    <row r="264" spans="2:26">
+      <c r="B264" s="59"/>
+      <c r="C264" s="60"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="60" t="s">
+        <v>878</v>
+      </c>
+      <c r="F264" s="60"/>
+      <c r="G264" s="60"/>
+      <c r="H264" s="60"/>
+      <c r="I264" s="60"/>
+      <c r="J264" s="60"/>
+      <c r="K264" s="60"/>
+      <c r="L264" s="60"/>
+      <c r="M264" s="60"/>
+      <c r="N264" s="60"/>
+      <c r="O264" s="60"/>
+      <c r="P264" s="60"/>
+      <c r="Q264" s="60"/>
+      <c r="R264" s="60"/>
+      <c r="S264" s="60"/>
+      <c r="T264" s="60"/>
+      <c r="U264" s="60"/>
+      <c r="V264" s="60"/>
+      <c r="W264" s="60"/>
+      <c r="X264" s="60"/>
+      <c r="Y264" s="60"/>
+      <c r="Z264" s="61"/>
+    </row>
+    <row r="265" spans="2:26">
+      <c r="B265" s="59"/>
+      <c r="C265" s="60" t="s">
+        <v>881</v>
+      </c>
+      <c r="D265" s="60" t="s">
+        <v>882</v>
+      </c>
+      <c r="E265" s="60"/>
+      <c r="F265" s="60"/>
+      <c r="G265" s="60"/>
+      <c r="H265" s="60"/>
+      <c r="I265" s="60"/>
+      <c r="J265" s="60"/>
+      <c r="K265" s="60"/>
+      <c r="L265" s="60"/>
+      <c r="M265" s="60"/>
+      <c r="N265" s="60"/>
+      <c r="O265" s="60"/>
+      <c r="P265" s="60"/>
+      <c r="Q265" s="60"/>
+      <c r="R265" s="60"/>
+      <c r="S265" s="60"/>
+      <c r="T265" s="60"/>
+      <c r="U265" s="60"/>
+      <c r="V265" s="60"/>
+      <c r="W265" s="60"/>
+      <c r="X265" s="60"/>
+      <c r="Y265" s="60"/>
+      <c r="Z265" s="61"/>
+    </row>
+    <row r="266" spans="2:26">
+      <c r="B266" s="59"/>
+      <c r="C266" s="60"/>
+      <c r="D266" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="E266" s="60"/>
+      <c r="F266" s="60"/>
+      <c r="G266" s="60"/>
+      <c r="H266" s="60"/>
+      <c r="I266" s="60"/>
+      <c r="J266" s="60"/>
+      <c r="K266" s="60"/>
+      <c r="L266" s="60"/>
+      <c r="M266" s="60"/>
+      <c r="N266" s="60"/>
+      <c r="O266" s="60"/>
+      <c r="P266" s="60"/>
+      <c r="Q266" s="60"/>
+      <c r="R266" s="60"/>
+      <c r="S266" s="60"/>
+      <c r="T266" s="60"/>
+      <c r="U266" s="60"/>
+      <c r="V266" s="60"/>
+      <c r="W266" s="60"/>
+      <c r="X266" s="60"/>
+      <c r="Y266" s="60"/>
+      <c r="Z266" s="61"/>
+    </row>
+    <row r="267" spans="2:26">
+      <c r="B267" s="62"/>
+      <c r="C267" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="D267" s="63"/>
+      <c r="E267" s="63"/>
+      <c r="F267" s="63"/>
+      <c r="G267" s="63"/>
+      <c r="H267" s="63"/>
+      <c r="I267" s="63"/>
+      <c r="J267" s="63"/>
+      <c r="K267" s="63"/>
+      <c r="L267" s="63"/>
+      <c r="M267" s="63"/>
+      <c r="N267" s="63"/>
+      <c r="O267" s="63"/>
+      <c r="P267" s="63"/>
+      <c r="Q267" s="63"/>
+      <c r="R267" s="63"/>
+      <c r="S267" s="63"/>
+      <c r="T267" s="63"/>
+      <c r="U267" s="63"/>
+      <c r="V267" s="63"/>
+      <c r="W267" s="63"/>
+      <c r="X267" s="63"/>
+      <c r="Y267" s="63"/>
+      <c r="Z267" s="64"/>
+    </row>
+    <row r="269" spans="2:26">
+      <c r="B269" s="67" t="s">
+        <v>706</v>
+      </c>
+      <c r="C269" s="68"/>
+      <c r="D269" s="68"/>
+      <c r="E269" s="68"/>
+      <c r="F269" s="68"/>
+      <c r="G269" s="68"/>
+      <c r="H269" s="68"/>
+      <c r="I269" s="68"/>
+      <c r="J269" s="68"/>
+      <c r="K269" s="68"/>
+      <c r="L269" s="68"/>
+      <c r="M269" s="68"/>
+      <c r="N269" s="68"/>
+      <c r="O269" s="68"/>
+      <c r="P269" s="68"/>
+      <c r="Q269" s="68"/>
+      <c r="R269" s="68"/>
+      <c r="S269" s="68"/>
+      <c r="T269" s="68"/>
+      <c r="U269" s="68"/>
+      <c r="V269" s="68"/>
+      <c r="W269" s="68"/>
+      <c r="X269" s="68"/>
+      <c r="Y269" s="68"/>
+      <c r="Z269" s="69"/>
+    </row>
+    <row r="270" spans="2:26">
+      <c r="B270" s="70"/>
+      <c r="C270" s="71" t="s">
+        <v>880</v>
+      </c>
+      <c r="D270" s="71"/>
+      <c r="E270" s="71"/>
+      <c r="F270" s="71"/>
+      <c r="G270" s="71"/>
+      <c r="H270" s="71"/>
+      <c r="I270" s="71"/>
+      <c r="J270" s="71"/>
+      <c r="K270" s="71"/>
+      <c r="L270" s="71"/>
+      <c r="M270" s="71"/>
+      <c r="N270" s="71"/>
+      <c r="O270" s="71"/>
+      <c r="P270" s="71"/>
+      <c r="Q270" s="71"/>
+      <c r="R270" s="71"/>
+      <c r="S270" s="71"/>
+      <c r="T270" s="71"/>
+      <c r="U270" s="71"/>
+      <c r="V270" s="71"/>
+      <c r="W270" s="71"/>
+      <c r="X270" s="71"/>
+      <c r="Y270" s="71"/>
+      <c r="Z270" s="72"/>
+    </row>
+    <row r="271" spans="2:26">
+      <c r="B271" s="70"/>
+      <c r="C271" s="71" t="s">
+        <v>883</v>
+      </c>
+      <c r="D271" s="71"/>
+      <c r="E271" s="71"/>
+      <c r="F271" s="71"/>
+      <c r="G271" s="71"/>
+      <c r="H271" s="71"/>
+      <c r="I271" s="71"/>
+      <c r="J271" s="71"/>
+      <c r="K271" s="71"/>
+      <c r="L271" s="71"/>
+      <c r="M271" s="71"/>
+      <c r="N271" s="71"/>
+      <c r="O271" s="71"/>
+      <c r="P271" s="71"/>
+      <c r="Q271" s="71"/>
+      <c r="R271" s="71"/>
+      <c r="S271" s="71"/>
+      <c r="T271" s="71"/>
+      <c r="U271" s="71"/>
+      <c r="V271" s="71"/>
+      <c r="W271" s="71"/>
+      <c r="X271" s="71"/>
+      <c r="Y271" s="71"/>
+      <c r="Z271" s="72"/>
+    </row>
+    <row r="272" spans="2:26">
+      <c r="B272" s="70"/>
+      <c r="C272" s="71" t="s">
+        <v>884</v>
+      </c>
+      <c r="D272" s="71"/>
+      <c r="E272" s="71"/>
+      <c r="F272" s="71"/>
+      <c r="G272" s="71"/>
+      <c r="H272" s="71"/>
+      <c r="I272" s="71"/>
+      <c r="J272" s="71"/>
+      <c r="K272" s="71"/>
+      <c r="L272" s="71"/>
+      <c r="M272" s="71"/>
+      <c r="N272" s="71"/>
+      <c r="O272" s="71"/>
+      <c r="P272" s="71"/>
+      <c r="Q272" s="71"/>
+      <c r="R272" s="71"/>
+      <c r="S272" s="71"/>
+      <c r="T272" s="71"/>
+      <c r="U272" s="71"/>
+      <c r="V272" s="71"/>
+      <c r="W272" s="71"/>
+      <c r="X272" s="71"/>
+      <c r="Y272" s="71"/>
+      <c r="Z272" s="72"/>
+    </row>
+    <row r="273" spans="2:26">
+      <c r="B273" s="70"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
+      <c r="E273" s="71"/>
+      <c r="F273" s="71"/>
+      <c r="G273" s="71"/>
+      <c r="H273" s="71"/>
+      <c r="I273" s="71"/>
+      <c r="J273" s="71"/>
+      <c r="K273" s="71"/>
+      <c r="L273" s="71"/>
+      <c r="M273" s="71"/>
+      <c r="N273" s="71"/>
+      <c r="O273" s="71"/>
+      <c r="P273" s="71"/>
+      <c r="Q273" s="71"/>
+      <c r="R273" s="71"/>
+      <c r="S273" s="71"/>
+      <c r="T273" s="71"/>
+      <c r="U273" s="71"/>
+      <c r="V273" s="71"/>
+      <c r="W273" s="71"/>
+      <c r="X273" s="71"/>
+      <c r="Y273" s="71"/>
+      <c r="Z273" s="72"/>
+    </row>
+    <row r="274" spans="2:26">
+      <c r="B274" s="73"/>
+      <c r="C274" s="74"/>
+      <c r="D274" s="74"/>
+      <c r="E274" s="74"/>
+      <c r="F274" s="74"/>
+      <c r="G274" s="74"/>
+      <c r="H274" s="74"/>
+      <c r="I274" s="74"/>
+      <c r="J274" s="74"/>
+      <c r="K274" s="74"/>
+      <c r="L274" s="74"/>
+      <c r="M274" s="74"/>
+      <c r="N274" s="74"/>
+      <c r="O274" s="74"/>
+      <c r="P274" s="74"/>
+      <c r="Q274" s="74"/>
+      <c r="R274" s="74"/>
+      <c r="S274" s="74"/>
+      <c r="T274" s="74"/>
+      <c r="U274" s="74"/>
+      <c r="V274" s="74"/>
+      <c r="W274" s="74"/>
+      <c r="X274" s="74"/>
+      <c r="Y274" s="74"/>
+      <c r="Z274" s="75"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
